--- a/bitacora_mantenimiento.xlsx
+++ b/bitacora_mantenimiento.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -1149,6 +1149,699 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cesar ramirez</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5587964476</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>UCL</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Refrigeracion Liquida</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>14123</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>NZXT</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>123412</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>54324</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>El equipo presenta falla por oxidacion y fuga de liquido</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Correctivo, Otro</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Se procedio a reparar la carcasa y sellar los tubos del radiador</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Alcohol Isopropílico, Aislantes, Liquido Limpiador Multiusos</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Juan Daniel Ramírez Zamora</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>cesar ramirez</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>cesar ramirez</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5587964476</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>UCL</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Refrigeracion Liquida</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>14123</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>NZXT</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>123412</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>54324</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>El equipo presenta falla por oxidacion y fuga de liquido</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Correctivo, Otro</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Se procedio a reparar la carcasa y sellar los tubos del radiador</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Alcohol Isopropílico, Aislantes, Liquido Limpiador Multiusos</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Juan Daniel Ramírez Zamora</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>cesar ramirez</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5587964476</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>UCL</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Refrigeracion Liquida</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>14123</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>NZXT</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>123412</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>54324</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>El equipo presenta falla por oxidacion y fuga de liquido</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Correctivo, Otro</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Se procedio a reparar la carcasa y sellar los tubos del radiador</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Alcohol Isopropílico, Aislantes, Liquido Limpiador Multiusos</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Juan Daniel Ramírez Zamora</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>cesar ramirez</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5587964476</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>UCL</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Refrigeracion Liquida</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>14123</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>NZXT</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>123412</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>54324</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>El equipo presenta falla por oxidacion y fuga de liquido</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Correctivo, Otro</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Se procedio a reparar la carcasa y sellar los tubos del radiador</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Alcohol Isopropílico, Aislantes, Liquido Limpiador Multiusos</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Juan Daniel Ramírez Zamora</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>cesar ramirez</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5587964476</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>UCL</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Refrigeracion Liquida</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>14123</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>NZXT</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>123412</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>54324</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>El equipo presenta falla por oxidacion y fuga de liquido</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Correctivo, Otro</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Se procedio a reparar la carcasa y sellar los tubos del radiador</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Alcohol Isopropílico, Aislantes, Liquido Limpiador Multiusos</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Juan Daniel Ramírez Zamora</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>cesar ramirez</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>cesar ramirez</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5587964476</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>UCL</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Refrigeracion Liquida</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>14123</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>NZXT</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>123412</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>54324</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>El equipo presenta falla por oxidacion y fuga de liquido</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Correctivo, Otro</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Se procedio a reparar la carcasa y sellar los tubos del radiador</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Alcohol Isopropílico, Aislantes, Liquido Limpiador Multiusos</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Juan Daniel Ramírez Zamora</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>cesar ramirez</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bitacora_mantenimiento.xlsx
+++ b/bitacora_mantenimiento.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -1842,6 +1842,124 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>cesar ramirez</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5587964476</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>UCL</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Refrigeracion Liquida</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>14123</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>NZXT</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>123412</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>54324</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>El equipo presenta falla por oxidacion y fuga de liquido</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Correctivo, Otro</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Se procedio a reparar la carcasa y sellar los tubos del radiador</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Alcohol Isopropílico, Aislantes, Liquido Limpiador Multiusos</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Juan Daniel Ramírez Zamora</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>cesar ramirez</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
